--- a/furkanefe-oss/evidence.xlsx
+++ b/furkanefe-oss/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691EE0B0-E8F6-4972-982E-0A9624EB227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16CF80-827C-41B6-9CED-897EA0204212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10008" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,13 +125,73 @@
   </si>
   <si>
     <t>furkanefe#5979</t>
+  </si>
+  <si>
+    <t>D467659CD17B6A982EEBCEC85FAC12C3DE59053579107F1D656FB993CB1F7B4B</t>
+  </si>
+  <si>
+    <t>furkan1</t>
+  </si>
+  <si>
+    <t>D057FD12B4F2BD47142AD2BE88C2DD6A79FAE917AD2C2636F92F92DF51A9E7E5</t>
+  </si>
+  <si>
+    <t>EBF62566175D0ABCE1C4226EE85CB28926B6F813EB619F235B3CB99D7CF2C1B9</t>
+  </si>
+  <si>
+    <t>9F93D1C1D53D64E395258449F8093347AECDA73B8AD15AE19F27F25D697FFFED</t>
+  </si>
+  <si>
+    <t>EB0EF52D70F3345E45F2BAAA522AD322F566D4890C8A7F08289ACA4E10D80A22</t>
+  </si>
+  <si>
+    <t>CC779F13C03FCAFBD660A2739E45E269C224FD8AB9441BB04B67F57CEAA4502E</t>
+  </si>
+  <si>
+    <t>furkannft1</t>
+  </si>
+  <si>
+    <t>furkannft2</t>
+  </si>
+  <si>
+    <t>furkannft3</t>
+  </si>
+  <si>
+    <t>furkannft4</t>
+  </si>
+  <si>
+    <t>furkannft5</t>
+  </si>
+  <si>
+    <t>1C019721762AAB7FEC3CE1EA36726827D597469883569134E968C6871DC22BF5</t>
+  </si>
+  <si>
+    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/furkan1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>016ADF957D24E783F00DFC69BFC48365F8DB89FD1B665E28454310728184EA63</t>
+  </si>
+  <si>
+    <t>ibc/2CC34178F8E9374E1A81DAD0B6FEC953F43DD6B829010E50CC84C2A5238AF6CA</t>
+  </si>
+  <si>
+    <t>2BA4071ADC730CAF3B581D2549BB1B0245CC9A9AC4F010E6BBD6686CFE9797E7</t>
+  </si>
+  <si>
+    <t>8EFB1149209E4D6C6CF9605774864041127A116EDEDE86F5D71740AE210BFAEF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +204,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,10 +269,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -232,9 +292,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1051D670-498B-4DF8-AFBE-F0E7870A4346}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{FCBE044C-C07F-4723-8DE2-9693129F1429}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{978E90EE-CECA-4EF7-93E5-5F9C86C75BFA}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{CFEB19CB-9F73-42FF-901A-A6D117C14392}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,54 +643,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1137,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1068,10 +1156,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1316,9 +1404,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1326,7 +1416,7 @@
     <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,19 +1427,74 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1360,7 +1505,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1385,16 +1532,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1556,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1434,16 +1583,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1607,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1483,16 +1634,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1658,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1533,16 +1686,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1710,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/furkanefe-oss/evidence.xlsx
+++ b/furkanefe-oss/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16CF80-827C-41B6-9CED-897EA0204212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FAFD23-5771-42C7-A545-A8E6520349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10008" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1980" windowWidth="17280" windowHeight="10008" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -185,6 +170,159 @@
   </si>
   <si>
     <t>8EFB1149209E4D6C6CF9605774864041127A116EDEDE86F5D71740AE210BFAEF</t>
+  </si>
+  <si>
+    <t>furkannft6</t>
+  </si>
+  <si>
+    <t>ibc/ACBDEA269B69EC8D70EC8E3D75BB61AF15F9034DE31CB05423E3668E519DF1A5</t>
+  </si>
+  <si>
+    <t>furkannft7</t>
+  </si>
+  <si>
+    <t>ibc/E74B96DC629D56D0F6E31105DE02F2D99227DE193B5A6C59499F7C15EE89F4F4</t>
+  </si>
+  <si>
+    <t>furkannft8</t>
+  </si>
+  <si>
+    <t>ibc/8FC0C15B81648C6162989519A35F1E4361FACA4E3DDCF08DFCB8078917B9CAD5</t>
+  </si>
+  <si>
+    <t>furkannft9</t>
+  </si>
+  <si>
+    <t>ibc/2840D53ED2A3FD053EB3818E8CD82FEE1CF4EE8C7B3E0799034A1150FBBA7402</t>
+  </si>
+  <si>
+    <t>furkannft10</t>
+  </si>
+  <si>
+    <t>ibc/8204F1E806671C96314F66FD47459F342E91B77EB4CBAAB3588E6C2CC7455CCC</t>
+  </si>
+  <si>
+    <t>furkannft11</t>
+  </si>
+  <si>
+    <t>ibc/C7080DE820B4A3A6C3195F4EA4DC9998B81B99E4DF0FD1CEF106E43CFD466A28</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>7FFB840F0FEF8B996D32EE9BB5058BE9F71F9A6B88F66D56BB7FF66CB105BF96</t>
+  </si>
+  <si>
+    <t>1086CD44AAB3A9DD1544CF475F3510974190904ACAC02C55AA6D32942B1C4918</t>
+  </si>
+  <si>
+    <t>3026938E2AAF293CAE648A820E70864A9F88339C9B0C5FA7BE22086624BD151C</t>
+  </si>
+  <si>
+    <t>7D364086F0044BAE8920C4368030084DA658A3ED9475BADF71132E80B92815AA</t>
+  </si>
+  <si>
+    <t>542BE4D070EF8118B42F9B8ABD60CB42DA97CC970AF754EB65ECF9A7A7E53A34</t>
+  </si>
+  <si>
+    <t>EC9E44D0D09293838FF168BE4F9C164D3D80D038B4B527191004FCEBA2426A21</t>
+  </si>
+  <si>
+    <t>1804F37CE0D59ADF74EA2825CD3221B5452FA3A014A46E7B6C288C3C317FD179</t>
+  </si>
+  <si>
+    <t>97E84EE9DEA0CA02BEEC669F5A4A7322A25FC8F095B5755536AF4C8E4240158A</t>
+  </si>
+  <si>
+    <t>F056BE69D4D7A8DB36FBF6C3221CD2079145808421022BE28A41A84C85390E27</t>
+  </si>
+  <si>
+    <t>AC7CC4E7618B779F0DF9D3624D5C6C9AB2EC858DB4741392E960EC9CC6BB0B5C</t>
+  </si>
+  <si>
+    <t>94A9A9B4525016C8A6B6B92C4E443BCE315F3CFC0DB99ADF141D73C885A4453C</t>
+  </si>
+  <si>
+    <t>01363B51C84624E72829254FA4962B8CDDBD5AF28DE3A5CEA9250C67239C5D40</t>
+  </si>
+  <si>
+    <t>27DB503EDF705C76029FB721582A92390DEC1EFB465ED844F42E618B71EFE76E</t>
+  </si>
+  <si>
+    <t>9A27A4CC0C31919614ECAB7EC0B3C37B4407028492E914119DC537503C067519</t>
+  </si>
+  <si>
+    <t>0A38431AF1F6CCE05DDE9EC31C9EE8BEAE52D161C9C00B340E90C5C02CF1D406</t>
+  </si>
+  <si>
+    <t>45CD5C99301533BF4B3F677E3BFA52D7C2015F4FF839BB4C0A7C5FB07FDABDB7</t>
+  </si>
+  <si>
+    <t>E081351390B9CAB60FB12FC311470DF0A49F86D4A60285ED1F92A50586FF5730</t>
+  </si>
+  <si>
+    <t>66FA12E547E44B628EA3E6AB56F15A1A389926755C44399AC3EC7075CEBACD50</t>
+  </si>
+  <si>
+    <t>18B599E2A6992D401450684570D7B1823C56AD74FB123DA7372ADBD488BD9C79</t>
+  </si>
+  <si>
+    <t>E6D9B0AB79CE59851A45354B6A80AA466BB4B18C20D7AB3A7DFFFECAC200AD3B</t>
+  </si>
+  <si>
+    <t>8C78B3D241164C0D30F070E188A1FE0B5BDA704A44BFBDFC5212BB7410B7F6DF</t>
+  </si>
+  <si>
+    <t>897AD155B289DD0590F686B207A2B738021A74C60DCBCAFDA6607ACEC744E005</t>
+  </si>
+  <si>
+    <t>96B9EAC83787408A5FAE090957857B28D4EED181ABBBE2B8ED6FF434002CE292</t>
+  </si>
+  <si>
+    <t>95D276D05117E8BD8FB05F8BDA40389C8FBA2CDF736CA4462A7A5570A8B6EEB7</t>
+  </si>
+  <si>
+    <t>5F3F9F1C0FAA2461B22EC93AB5BAF53C1385EF541FD3874F29489CA3A4F542D5</t>
+  </si>
+  <si>
+    <t>26153C3B210D461A2925063B37472698FF62F12722E2D993E7C189D13A8E923E</t>
+  </si>
+  <si>
+    <t>FB76D4127D08D2D4E52BEA64FF34B6574BED0EC71F59D8BACF9E83D9BFD059CF</t>
+  </si>
+  <si>
+    <t>AC583F671707FF2C3155ADAFD655F513690BCE1ABBA9EFCF79FF4617174275FB</t>
+  </si>
+  <si>
+    <t>19FA99B3B448C500F6919E3C7A28892B6E1DE729543B068F3BADDD9494AFA683</t>
+  </si>
+  <si>
+    <t>F8C94B82DFBE236992520688A8705C07E4C273BB9BE2158E2D6E834AE32C23BD</t>
+  </si>
+  <si>
+    <t>C204F4DAAD983D257D644E9EBC82E5F33D11916A8BD780374454483ABB6CF300</t>
+  </si>
+  <si>
+    <t>7605443895959D5737508B531449A4EB51E7A6F1F9F6BA18CAB7F39CBE4FE58B</t>
+  </si>
+  <si>
+    <t>7E07524A031B3A62188E416663FA04F9F8AFACFA608186B0D00B8F19A2046003</t>
+  </si>
+  <si>
+    <t>DF4E58753954125A3CCD62FB2F45DAE9D020CB6A12340CFC76C4BCAA3C75CAFC</t>
+  </si>
+  <si>
+    <t>027142334A56ED2965B2F5D85A1D41078532275EC2896C0C70BF4E08F0D9E160</t>
+  </si>
+  <si>
+    <t>3BA977D3ACAA6F9789A90EC740278D955049217A5FDF4B217870C09A23B8A331</t>
   </si>
 </sst>
 </file>
@@ -269,14 +407,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -314,13 +489,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="14" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="15" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="16" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="18" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="19" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="20" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="24" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="27" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="28" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="31" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="32" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="33" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="34" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="35" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="37" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="38" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="39" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="40" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="42">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{E2EBC191-03EA-4B43-A503-0F0CBE6C78C6}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{E6C6F791-1F50-4875-BC73-4272BB731177}"/>
+    <cellStyle name="Normal 12" xfId="11" xr:uid="{5128E97C-A1A2-4108-B9F9-13AC1A6E90AC}"/>
+    <cellStyle name="Normal 13" xfId="12" xr:uid="{410C934A-91FC-4FBF-BAAF-E2E3F202825B}"/>
+    <cellStyle name="Normal 14" xfId="13" xr:uid="{3CFC2802-5F01-4A5B-B5BB-905177E7B123}"/>
+    <cellStyle name="Normal 15" xfId="14" xr:uid="{14001875-5E7D-4D35-88F2-673978416978}"/>
+    <cellStyle name="Normal 16" xfId="15" xr:uid="{6DC1C100-8BED-456E-8965-A717367BF416}"/>
+    <cellStyle name="Normal 17" xfId="16" xr:uid="{9F1DA7E7-08B9-47BD-9AA2-A116589D0C69}"/>
+    <cellStyle name="Normal 18" xfId="17" xr:uid="{30A84E0F-695C-4F27-B619-02B2CB5C248C}"/>
+    <cellStyle name="Normal 19" xfId="18" xr:uid="{8530CEEE-C41D-48C2-BFD9-86BCFED13E33}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1051D670-498B-4DF8-AFBE-F0E7870A4346}"/>
+    <cellStyle name="Normal 20" xfId="19" xr:uid="{81AC236E-8B68-46A6-8302-1606AB88E022}"/>
+    <cellStyle name="Normal 21" xfId="20" xr:uid="{C9684668-051C-49E8-B853-131B95406AF9}"/>
+    <cellStyle name="Normal 22" xfId="21" xr:uid="{D8222EB5-1022-41CF-97CB-022160D92055}"/>
+    <cellStyle name="Normal 23" xfId="22" xr:uid="{D938E1AF-E740-48E2-9336-2BBC32D10FFD}"/>
+    <cellStyle name="Normal 24" xfId="23" xr:uid="{8EDC89E1-04E6-4FB2-A02E-6F3D5A423250}"/>
+    <cellStyle name="Normal 25" xfId="24" xr:uid="{55E5AEF9-DCFE-489A-BAC2-E10C631D855C}"/>
+    <cellStyle name="Normal 26" xfId="25" xr:uid="{F8740776-1E4D-4747-B12E-B38F975BF9BC}"/>
+    <cellStyle name="Normal 27" xfId="26" xr:uid="{C9E13ABB-7272-4774-B727-6D361C0BDEB0}"/>
+    <cellStyle name="Normal 28" xfId="27" xr:uid="{877F8A0F-F3B5-40ED-84B4-59E9A2EFE772}"/>
+    <cellStyle name="Normal 29" xfId="28" xr:uid="{79D18673-AE03-44BB-8CA3-9EF4177BC833}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{FCBE044C-C07F-4723-8DE2-9693129F1429}"/>
+    <cellStyle name="Normal 30" xfId="29" xr:uid="{58D5F637-6DE8-4CA3-A74D-7BF73C62CF95}"/>
+    <cellStyle name="Normal 31" xfId="30" xr:uid="{E800FCD7-4F96-481A-A113-BD9793DEA52B}"/>
+    <cellStyle name="Normal 32" xfId="31" xr:uid="{FAB04DC8-0EFF-4E3B-A21D-9F5873C4B374}"/>
+    <cellStyle name="Normal 33" xfId="32" xr:uid="{8493092B-6A63-4F57-B9C1-9665E018F119}"/>
+    <cellStyle name="Normal 34" xfId="33" xr:uid="{95098A7A-F47D-4798-BAB7-901630E6D0DB}"/>
+    <cellStyle name="Normal 35" xfId="34" xr:uid="{F40487B8-AF41-42D2-9281-0415302EC271}"/>
+    <cellStyle name="Normal 36" xfId="35" xr:uid="{A4AB28E0-2533-4B84-B5BA-97E4B06AE98B}"/>
+    <cellStyle name="Normal 37" xfId="36" xr:uid="{4DC31BDB-864B-4E9A-93F9-CC5E60AF6D3A}"/>
+    <cellStyle name="Normal 38" xfId="37" xr:uid="{BA752F9B-75DB-4117-A47E-46EC6CCEB502}"/>
+    <cellStyle name="Normal 39" xfId="38" xr:uid="{E6B8B412-F8C8-4671-BB25-61688264989B}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{978E90EE-CECA-4EF7-93E5-5F9C86C75BFA}"/>
+    <cellStyle name="Normal 40" xfId="39" xr:uid="{C54B62BE-8E3E-4DF3-A801-4536BADFF690}"/>
+    <cellStyle name="Normal 41" xfId="40" xr:uid="{F41A7B27-53B8-452B-B017-F729FC680554}"/>
+    <cellStyle name="Normal 42" xfId="41" xr:uid="{DEC52544-9DA5-4D53-8671-36B312ADA095}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{CFEB19CB-9F73-42FF-901A-A6D117C14392}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{EAB2DAE6-1C43-4B64-B0DB-28FF31542B63}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{F70C1FEF-5D83-4A30-A7D2-BF6A9797E18D}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{B29EA2D3-96E2-449C-80A0-4972B5125E1F}"/>
+    <cellStyle name="Normal 9" xfId="8" xr:uid="{F9CA660F-B769-4DEE-819B-4CE029F62C74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,7 +893,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,54 +910,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -700,438 +967,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1143,6 +978,531 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
     <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1151,15 +1511,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1172,9 +1532,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1192,23 +1554,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,9 +1610,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1240,23 +1632,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,7 +1827,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,69 +1841,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -1521,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1532,16 +1952,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1977,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1583,16 +2003,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1634,16 +2054,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1686,89 +2106,93 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/furkanefe-oss/evidence.xlsx
+++ b/furkanefe-oss/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FAFD23-5771-42C7-A545-A8E6520349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B5C47-2207-463A-B2D1-25FC7DD9CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1980" windowWidth="17280" windowHeight="10008" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="1836" windowWidth="17280" windowHeight="10008" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>1C019721762AAB7FEC3CE1EA36726827D597469883569134E968C6871DC22BF5</t>
   </si>
   <si>
-    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/furkan1</t>
-  </si>
-  <si>
     <t>uni-6</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>3BA977D3ACAA6F9789A90EC740278D955049217A5FDF4B217870C09A23B8A331</t>
+  </si>
+  <si>
+    <t>juno1ec63x2rf980zhxa5x0rrkj5zpflamra5cl6k3vxg3j3eqna53f2sjwtul7</t>
   </si>
 </sst>
 </file>
@@ -992,10 +992,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1144,34 +1144,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1207,34 +1207,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1269,34 +1269,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1331,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1393,34 +1393,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1455,34 +1455,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1554,50 +1554,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1612,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1632,50 +1632,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1926,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,13 +1955,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2027,8 +2027,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/furkanefe-oss/evidence.xlsx
+++ b/furkanefe-oss/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\gon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B5C47-2207-463A-B2D1-25FC7DD9CC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA843FA5-7B50-4EBC-9951-EEBF9A3E22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4164" yWindow="1836" windowWidth="17280" windowHeight="10008" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="924" windowWidth="17280" windowHeight="10008" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
@@ -148,9 +148,6 @@
     <t>furkannft5</t>
   </si>
   <si>
-    <t>1C019721762AAB7FEC3CE1EA36726827D597469883569134E968C6871DC22BF5</t>
-  </si>
-  <si>
     <t>uni-6</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>ibc/2CC34178F8E9374E1A81DAD0B6FEC953F43DD6B829010E50CC84C2A5238AF6CA</t>
   </si>
   <si>
-    <t>2BA4071ADC730CAF3B581D2549BB1B0245CC9A9AC4F010E6BBD6686CFE9797E7</t>
-  </si>
-  <si>
     <t>8EFB1149209E4D6C6CF9605774864041127A116EDEDE86F5D71740AE210BFAEF</t>
   </si>
   <si>
@@ -323,6 +317,18 @@
   </si>
   <si>
     <t>juno1ec63x2rf980zhxa5x0rrkj5zpflamra5cl6k3vxg3j3eqna53f2sjwtul7</t>
+  </si>
+  <si>
+    <t>furkannft22</t>
+  </si>
+  <si>
+    <t>EE697DF50A270B8ABEFB9B7F871E7F32440EA2163EC8B2A946BB7D036E806C0F</t>
+  </si>
+  <si>
+    <t>C1E01BA9C221F1578484D4315EC79029D01CCB26022FE631ADA6B15A2D16A64D</t>
+  </si>
+  <si>
+    <t>3148AD22604271D4F98B03C9E613BB01411C9BD6EE8EE050CE2624F6CC240B7C</t>
   </si>
 </sst>
 </file>
@@ -893,7 +899,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,10 +998,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1030,10 +1036,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1074,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1112,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1144,34 +1150,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1207,34 +1213,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1269,34 +1275,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1337,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1393,34 +1399,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1455,34 +1461,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1554,50 +1560,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1632,50 +1638,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1826,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,8 +1914,15 @@
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
   </sheetData>
@@ -1926,7 +1939,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,16 +1965,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2003,16 +2016,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2027,8 +2040,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,16 +2067,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2106,16 +2119,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2163,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2201,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/furkanefe-oss/evidence.xlsx
+++ b/furkanefe-oss/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frkn_\Desktop\gon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA843FA5-7B50-4EBC-9951-EEBF9A3E22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D78FA-65C9-41C1-AD97-E55F8F0DB2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="924" windowWidth="17280" windowHeight="10008" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1224" windowWidth="16560" windowHeight="10008" firstSheet="14" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
   <si>
     <t>TxHash</t>
   </si>
@@ -329,6 +330,30 @@
   </si>
   <si>
     <t>3148AD22604271D4F98B03C9E613BB01411C9BD6EE8EE050CE2624F6CC240B7C</t>
+  </si>
+  <si>
+    <t>4B6EE9A41A4F055D5642AA796576087EA60B069EA88A75321F245A65F6046418</t>
+  </si>
+  <si>
+    <t>50B91747D02C2CBFD97557733BDA493465167B2D30D2598E0C97614CA2B566B4</t>
+  </si>
+  <si>
+    <t>4F30A00BCD77AC383713D2449D94F48FC23F79FC679036DFD27B104B5294798F</t>
+  </si>
+  <si>
+    <t>959A861D08670153E84D8F7D4412756AE9E1488B95C881AD6A7F7214C7386869</t>
+  </si>
+  <si>
+    <t>CDB428A555B115D05ED72038D3AEC7D496F50CDD8F20FE292998AC481B07E866</t>
+  </si>
+  <si>
+    <t>E03910F29DAB97D8C32E9CA1E0FBA522AA67C38F33CDE0B7FF7A3F8C98E4E364</t>
+  </si>
+  <si>
+    <t>9B139418B837ADB23F7056ADF9ADEFA6BE7C30053D3D63B6693EB4176EB80638</t>
+  </si>
+  <si>
+    <t>F2D8BB8E9EB930C0E46C330C9C8E4DE3BCE89D7AAC22B606D0EC6EFF0204696F</t>
   </si>
 </sst>
 </file>
@@ -457,7 +482,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,15 +490,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,70 +506,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="14" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="15" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="16" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="18" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="19" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="20" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="19" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="20" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="24" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="22" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="24" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="27" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="28" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="29" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="27" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="28" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="29" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="31" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="32" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="33" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="34" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="35" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="31" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="33" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="35" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="37" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="38" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="39" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="40" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="37" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="38" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="39" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="40" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="41" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,19 +922,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,28 +964,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -984,8 +1007,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1022,8 +1045,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1060,8 +1083,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1098,8 +1121,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,8 +1159,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1152,7 +1175,7 @@
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1160,7 +1183,7 @@
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1168,15 +1191,15 @@
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1199,8 +1222,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1238,7 @@
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1223,7 +1246,7 @@
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1231,15 +1254,15 @@
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1261,8 +1284,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,7 +1300,7 @@
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1285,7 +1308,7 @@
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1293,15 +1316,15 @@
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1323,8 +1346,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1339,7 +1362,7 @@
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1347,7 +1370,7 @@
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1355,15 +1378,15 @@
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1385,8 +1408,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1424,7 @@
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1409,7 +1432,7 @@
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1417,15 +1440,15 @@
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1447,8 +1470,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1463,7 +1486,7 @@
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1471,7 +1494,7 @@
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1479,15 +1502,15 @@
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1509,7 +1532,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1546,8 +1569,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,7 +1585,7 @@
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1570,7 +1593,7 @@
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1578,31 +1601,31 @@
       <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1624,8 +1647,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1663,7 @@
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1648,39 +1671,39 @@
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1694,13 +1717,59 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1723,18 +1792,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,31 +1815,33 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1778,46 +1851,45 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ABBBF9-4CA2-4974-A8C1-D40F55D9D6D6}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1832,14 +1904,14 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,73 +1929,73 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,9 +2016,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1973,6 +2045,108 @@
       <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1982,12 +2156,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1995,162 +2259,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2163,44 +2273,6 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
